--- a/testCase/sqszyyadmin/departmentCategoryManage.xlsx
+++ b/testCase/sqszyyadmin/departmentCategoryManage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="20355" windowHeight="7725" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20355" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="insertCategory" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="16">
   <si>
     <t>caseName</t>
   </si>
@@ -64,7 +64,12 @@
     <t>编辑一级科室</t>
   </si>
   <si>
+    <t>睿博一级科室</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>睿博一级科室（改）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1038,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1083,7 +1088,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="3">
-        <v>100001</v>
+        <v>311001</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -1122,7 +1127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27">
+    <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1311,7 +1316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27">
+    <row r="2" spans="1:4">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -1335,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="C1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1364,7 +1369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="40.5">
+    <row r="2" spans="1:5">
       <c r="A2" s="12" t="s">
         <v>13</v>
       </c>
@@ -1372,13 +1377,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="13">
-        <v>100002</v>
+        <v>311002</v>
       </c>
     </row>
   </sheetData>

--- a/testCase/sqszyyadmin/departmentCategoryManage.xlsx
+++ b/testCase/sqszyyadmin/departmentCategoryManage.xlsx
@@ -4,23 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="20355" windowHeight="7725"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20355" windowHeight="7725" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="insertCategory" sheetId="1" r:id="rId1"/>
-    <sheet name="deleteCategory" sheetId="2" r:id="rId2"/>
-    <sheet name="moveDownCategory" sheetId="3" r:id="rId3"/>
-    <sheet name="moveTopCategory" sheetId="4" r:id="rId4"/>
-    <sheet name="moveUpCategory" sheetId="5" r:id="rId5"/>
-    <sheet name="searchCategory" sheetId="6" r:id="rId6"/>
-    <sheet name="updateCategory" sheetId="7" r:id="rId7"/>
+    <sheet name="moveTopCategory" sheetId="4" r:id="rId2"/>
+    <sheet name="deleteCategory" sheetId="2" r:id="rId3"/>
+    <sheet name="searchCategory" sheetId="6" r:id="rId4"/>
+    <sheet name="updateCategory" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
   <si>
     <t>caseName</t>
   </si>
@@ -37,34 +35,46 @@
     <t>categoryCode</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>睿博一级科室</t>
+  </si>
+  <si>
+    <t>删除一级科室</t>
+  </si>
+  <si>
+    <t>搜索一级科室</t>
+  </si>
+  <si>
+    <t>编辑一级科室</t>
+  </si>
+  <si>
+    <t>睿博一级科室1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>睿博一级科室2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>置顶一级科室</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>睿博一级科室</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>置顶一级科室</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>新增一级科室</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>睿博一级科室</t>
-  </si>
-  <si>
-    <t>删除一级科室</t>
-  </si>
-  <si>
-    <t>下移一级科室</t>
-  </si>
-  <si>
-    <t>置顶一级科室</t>
-  </si>
-  <si>
-    <t>上移一级科室</t>
-  </si>
-  <si>
-    <t>搜索一级科室</t>
-  </si>
-  <si>
-    <t>编辑一级科室</t>
-  </si>
-  <si>
-    <t>睿博一级科室</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增一级科室</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -663,7 +673,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -681,15 +691,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -1041,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1075,22 +1076,39 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
+      <c r="C2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="E2" s="3">
         <v>311001</v>
       </c>
       <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="10">
+        <v>311002</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -1100,10 +1118,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1129,72 +1200,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4">
         <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="7">
-        <v>100001</v>
       </c>
     </row>
   </sheetData>
@@ -1204,90 +1219,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1303,31 +1234,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>7</v>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1336,12 +1267,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1353,37 +1284,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="13">
-        <v>311002</v>
+      <c r="A2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="10">
+        <v>311003</v>
       </c>
     </row>
   </sheetData>
